--- a/src/idos_ppp/data/original_data/241107 Komposition Draft.xlsx
+++ b/src/idos_ppp/data/original_data/241107 Komposition Draft.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Loewe\2023d Operationalisierung des GV\Indkatorenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/IDOS/IDOS-PPP/src/idos_ppp/data/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8733C29C-CF99-604D-B4F3-ADEA7EC45EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="6870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1373,11 +1374,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2619,103 +2620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2754,10 +2659,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2778,16 +2704,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,13 +2797,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3094,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XED89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3104,26 +3105,26 @@
       <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="65" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="30" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="30" customWidth="1"/>
     <col min="9" max="9" width="85" style="15" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="11.42578125" style="81"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="58.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="11" width="11.5" style="1"/>
+    <col min="12" max="12" width="11.5" style="81"/>
+    <col min="13" max="13" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="58.1640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="21" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -3158,11 +3159,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:16" ht="16">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="198" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -3197,13 +3198,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="163" t="s">
+    <row r="3" spans="1:16" ht="33" thickBot="1">
+      <c r="A3" s="166"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="165">
+      <c r="D3" s="185">
         <v>0.2</v>
       </c>
       <c r="E3" s="63"/>
@@ -3216,18 +3217,18 @@
       <c r="H3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="187" t="s">
         <v>156</v>
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="83"/>
       <c r="L3" s="83"/>
     </row>
-    <row r="4" spans="1:16" s="58" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="166"/>
+    <row r="4" spans="1:16" s="58" customFormat="1" ht="17" thickBot="1">
+      <c r="A4" s="166"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="71" t="s">
         <v>128</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="H4" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="168"/>
+      <c r="I4" s="189"/>
       <c r="J4" s="90" t="s">
         <v>173</v>
       </c>
@@ -3256,9 +3257,9 @@
       </c>
       <c r="O4" s="81"/>
     </row>
-    <row r="5" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="155" t="s">
+    <row r="5" spans="1:16" ht="33" thickBot="1">
+      <c r="A5" s="166"/>
+      <c r="B5" s="164" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="67" t="s">
@@ -3295,9 +3296,9 @@
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158"/>
-      <c r="B6" s="155"/>
+    <row r="6" spans="1:16" ht="17" thickBot="1">
+      <c r="A6" s="166"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="67" t="s">
         <v>8</v>
       </c>
@@ -3333,12 +3334,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158"/>
-      <c r="B7" s="169" t="s">
+    <row r="7" spans="1:16" ht="17" thickBot="1">
+      <c r="A7" s="166"/>
+      <c r="B7" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="169"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="8">
         <v>0.2</v>
       </c>
@@ -3370,12 +3371,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
-      <c r="B8" s="185" t="s">
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="49" thickBot="1">
+      <c r="A8" s="167"/>
+      <c r="B8" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="186"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="12"/>
       <c r="E8" s="64"/>
       <c r="F8" s="33"/>
@@ -3388,14 +3389,14 @@
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
     </row>
-    <row r="9" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150" t="s">
+    <row r="9" spans="1:16" ht="33" thickBot="1">
+      <c r="A9" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="196"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3424,10 +3425,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
+    <row r="10" spans="1:16" ht="48">
+      <c r="A10" s="181"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
       <c r="D10" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3461,12 +3462,12 @@
       <c r="O10" s="81"/>
       <c r="P10" s="81"/>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
-      <c r="B11" s="178" t="s">
+    <row r="11" spans="1:16" ht="48">
+      <c r="A11" s="181"/>
+      <c r="B11" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="179"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="27" t="s">
@@ -3476,17 +3477,17 @@
         <v>94</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="180" t="s">
         <v>101</v>
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
     </row>
-    <row r="12" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
+    <row r="12" spans="1:16" ht="49" thickBot="1">
+      <c r="A12" s="181"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
@@ -3496,17 +3497,17 @@
         <v>94</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="151"/>
+      <c r="I12" s="181"/>
       <c r="J12" s="83"/>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
     </row>
-    <row r="13" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="155" t="s">
+    <row r="13" spans="1:16" ht="33" thickBot="1">
+      <c r="A13" s="195"/>
+      <c r="B13" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="155"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3541,10 +3542,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
+    <row r="14" spans="1:16" ht="32">
+      <c r="A14" s="195"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3579,12 +3580,12 @@
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="155" t="s">
+    <row r="15" spans="1:16" ht="32">
+      <c r="A15" s="195"/>
+      <c r="B15" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="155"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3618,10 +3619,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
+    <row r="16" spans="1:16" ht="32">
+      <c r="A16" s="195"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3654,12 +3655,12 @@
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="155" t="s">
+    <row r="17" spans="1:16" ht="32">
+      <c r="A17" s="195"/>
+      <c r="B17" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="155"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3696,10 +3697,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
+    <row r="18" spans="1:16" ht="16">
+      <c r="A18" s="195"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3736,12 +3737,12 @@
       <c r="O18" s="81"/>
       <c r="P18" s="81"/>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="155" t="s">
+    <row r="19" spans="1:16" ht="32">
+      <c r="A19" s="195"/>
+      <c r="B19" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="155"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3778,10 +3779,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
+    <row r="20" spans="1:16" ht="32">
+      <c r="A20" s="195"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3818,12 +3819,12 @@
       <c r="O20" s="81"/>
       <c r="P20" s="81"/>
     </row>
-    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="197" t="s">
+    <row r="21" spans="1:16" ht="48">
+      <c r="A21" s="195"/>
+      <c r="B21" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="198"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3860,11 +3861,11 @@
       <c r="O21" s="81"/>
       <c r="P21" s="81"/>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="165"/>
+    <row r="22" spans="1:16" ht="32">
+      <c r="A22" s="195"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="62"/>
       <c r="F22" s="37" t="s">
         <v>24</v>
@@ -3875,7 +3876,7 @@
       <c r="H22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="167" t="s">
+      <c r="I22" s="187" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="83"/>
@@ -3883,11 +3884,11 @@
       <c r="L22" s="83"/>
       <c r="P22" s="81"/>
     </row>
-    <row r="23" spans="1:16" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="166"/>
+    <row r="23" spans="1:16" s="60" customFormat="1" ht="48">
+      <c r="A23" s="195"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="186"/>
       <c r="E23" s="76" t="s">
         <v>142</v>
       </c>
@@ -3900,16 +3901,16 @@
       <c r="H23" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="182"/>
+      <c r="I23" s="188"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
       <c r="P23" s="81"/>
     </row>
-    <row r="24" spans="1:16" s="60" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="200"/>
+    <row r="24" spans="1:16" s="60" customFormat="1" ht="49" thickBot="1">
+      <c r="A24" s="195"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3925,7 +3926,7 @@
       <c r="H24" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="168"/>
+      <c r="I24" s="189"/>
       <c r="J24" s="91" t="s">
         <v>163</v>
       </c>
@@ -3943,12 +3944,12 @@
       </c>
       <c r="P24" s="81"/>
     </row>
-    <row r="25" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="197" t="s">
+    <row r="25" spans="1:16" ht="81" thickBot="1">
+      <c r="A25" s="195"/>
+      <c r="B25" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="198"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="2">
         <v>6.25E-2</v>
       </c>
@@ -3980,10 +3981,10 @@
       <c r="N25" s="84"/>
       <c r="O25" s="84"/>
     </row>
-    <row r="26" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="200"/>
+    <row r="26" spans="1:16" ht="33" thickBot="1">
+      <c r="A26" s="195"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="2">
         <v>6.25E-2</v>
       </c>
@@ -4013,12 +4014,12 @@
       <c r="N26" s="84"/>
       <c r="O26" s="84"/>
     </row>
-    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.2">
-      <c r="A27" s="152"/>
-      <c r="B27" s="155" t="s">
+    <row r="27" spans="1:16" ht="96">
+      <c r="A27" s="195"/>
+      <c r="B27" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="155"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="2">
         <v>6.25E-2</v>
       </c>
@@ -4050,10 +4051,10 @@
       <c r="N27" s="84"/>
       <c r="O27" s="84"/>
     </row>
-    <row r="28" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
+    <row r="28" spans="1:16" ht="65" thickBot="1">
+      <c r="A28" s="195"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
@@ -4068,10 +4069,10 @@
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
     </row>
-    <row r="29" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
+    <row r="29" spans="1:16" ht="49" thickBot="1">
+      <c r="A29" s="195"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="2">
         <v>6.25E-2</v>
       </c>
@@ -4101,14 +4102,14 @@
       <c r="N29" s="81"/>
       <c r="O29" s="81"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+    <row r="30" spans="1:16" ht="17" thickBot="1">
+      <c r="A30" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="154"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="7">
         <v>0.33</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="H30" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="167" t="s">
+      <c r="I30" s="187" t="s">
         <v>74</v>
       </c>
       <c r="J30" s="82" t="s">
@@ -4140,12 +4141,12 @@
       <c r="O30" s="81"/>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="156" t="s">
+    <row r="31" spans="1:16" ht="17" thickBot="1">
+      <c r="A31" s="203"/>
+      <c r="B31" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="156"/>
+      <c r="C31" s="197"/>
       <c r="D31" s="8">
         <v>0.67</v>
       </c>
@@ -4161,7 +4162,7 @@
       <c r="H31" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="151"/>
+      <c r="I31" s="181"/>
       <c r="J31" s="88" t="s">
         <v>181</v>
       </c>
@@ -4175,12 +4176,12 @@
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="187" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="193" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="161" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="21">
@@ -4193,10 +4194,10 @@
       <c r="G32" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="171" t="s">
+      <c r="H32" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="170" t="s">
+      <c r="I32" s="184" t="s">
         <v>153</v>
       </c>
       <c r="J32" s="83"/>
@@ -4205,10 +4206,10 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
     </row>
-    <row r="33" spans="1:16358" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="189"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="194"/>
+    <row r="33" spans="1:16358" s="5" customFormat="1">
+      <c r="A33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="162"/>
       <c r="D33" s="2">
         <v>0.5</v>
       </c>
@@ -4219,17 +4220,17 @@
       <c r="G33" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="172"/>
-      <c r="I33" s="158"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="166"/>
       <c r="J33" s="83"/>
       <c r="K33" s="83"/>
       <c r="L33" s="83"/>
       <c r="O33" s="81"/>
       <c r="P33" s="81"/>
     </row>
-    <row r="34" spans="1:16358" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="189"/>
-      <c r="B34" s="190"/>
+    <row r="34" spans="1:16358" s="5" customFormat="1" ht="16">
+      <c r="A34" s="157"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="68" t="s">
         <v>81</v>
       </c>
@@ -4240,16 +4241,16 @@
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="158"/>
+      <c r="I34" s="166"/>
       <c r="J34" s="83"/>
       <c r="K34" s="83"/>
       <c r="L34" s="83"/>
       <c r="O34" s="81"/>
       <c r="P34" s="81"/>
     </row>
-    <row r="35" spans="1:16358" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="189"/>
-      <c r="B35" s="190"/>
+    <row r="35" spans="1:16358" s="5" customFormat="1" ht="16">
+      <c r="A35" s="157"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="68" t="s">
         <v>83</v>
       </c>
@@ -4260,14 +4261,14 @@
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="158"/>
+      <c r="I35" s="166"/>
       <c r="J35" s="83"/>
       <c r="K35" s="83"/>
       <c r="L35" s="83"/>
     </row>
-    <row r="36" spans="1:16358" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
-      <c r="B36" s="192"/>
+    <row r="36" spans="1:16358" ht="17" thickBot="1">
+      <c r="A36" s="159"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="69" t="s">
         <v>80</v>
       </c>
@@ -4280,19 +4281,19 @@
         <v>53</v>
       </c>
       <c r="H36" s="26"/>
-      <c r="I36" s="151"/>
+      <c r="I36" s="181"/>
       <c r="J36" s="83"/>
       <c r="K36" s="83"/>
       <c r="L36" s="83"/>
     </row>
-    <row r="37" spans="1:16358" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="157" t="s">
+    <row r="37" spans="1:16358" ht="42">
+      <c r="A37" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="154"/>
+      <c r="C37" s="163"/>
       <c r="D37" s="7">
         <v>0.3</v>
       </c>
@@ -4303,22 +4304,22 @@
       <c r="G37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="171" t="s">
+      <c r="H37" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="170" t="s">
+      <c r="I37" s="184" t="s">
         <v>152</v>
       </c>
       <c r="J37" s="83"/>
       <c r="K37" s="83"/>
       <c r="L37" s="83"/>
     </row>
-    <row r="38" spans="1:16358" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="155" t="s">
+    <row r="38" spans="1:16358" ht="28">
+      <c r="A38" s="166"/>
+      <c r="B38" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="155"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="2">
         <v>0.3</v>
       </c>
@@ -4329,18 +4330,18 @@
       <c r="G38" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="172"/>
-      <c r="I38" s="158"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="166"/>
       <c r="J38" s="83"/>
       <c r="K38" s="83"/>
       <c r="L38" s="83"/>
     </row>
-    <row r="39" spans="1:16358" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="158"/>
-      <c r="B39" s="155" t="s">
+    <row r="39" spans="1:16358" ht="28">
+      <c r="A39" s="166"/>
+      <c r="B39" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="155"/>
+      <c r="C39" s="164"/>
       <c r="D39" s="2">
         <v>0.1</v>
       </c>
@@ -4352,15 +4353,15 @@
         <v>56</v>
       </c>
       <c r="H39" s="31"/>
-      <c r="I39" s="158"/>
+      <c r="I39" s="166"/>
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
       <c r="L39" s="83"/>
     </row>
-    <row r="40" spans="1:16358" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="158"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
+    <row r="40" spans="1:16358" ht="28">
+      <c r="A40" s="166"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="2">
         <v>0.1</v>
       </c>
@@ -4372,15 +4373,15 @@
         <v>56</v>
       </c>
       <c r="H40" s="31"/>
-      <c r="I40" s="158"/>
+      <c r="I40" s="166"/>
       <c r="J40" s="83"/>
       <c r="K40" s="83"/>
       <c r="L40" s="83"/>
     </row>
-    <row r="41" spans="1:16358" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="158"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
+    <row r="41" spans="1:16358" ht="42">
+      <c r="A41" s="166"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="2">
         <v>0.1</v>
       </c>
@@ -4392,15 +4393,15 @@
         <v>56</v>
       </c>
       <c r="H41" s="31"/>
-      <c r="I41" s="158"/>
+      <c r="I41" s="166"/>
       <c r="J41" s="83"/>
       <c r="K41" s="83"/>
       <c r="L41" s="83"/>
     </row>
-    <row r="42" spans="1:16358" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="159"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
+    <row r="42" spans="1:16358" ht="29" thickBot="1">
+      <c r="A42" s="167"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
       <c r="D42" s="8">
         <v>0.1</v>
       </c>
@@ -4414,19 +4415,19 @@
       <c r="H42" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="151"/>
+      <c r="I42" s="181"/>
       <c r="J42" s="83"/>
       <c r="K42" s="83"/>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:16358" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="150" t="s">
+    <row r="43" spans="1:16358" ht="96">
+      <c r="A43" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="154"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="7">
         <v>0.2</v>
       </c>
@@ -4437,7 +4438,7 @@
       <c r="G43" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="171" t="s">
+      <c r="H43" s="178" t="s">
         <v>116</v>
       </c>
       <c r="I43" s="35" t="s">
@@ -4447,10 +4448,10 @@
       <c r="K43" s="83"/>
       <c r="L43" s="83"/>
     </row>
-    <row r="44" spans="1:16358" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
+    <row r="44" spans="1:16358" ht="43" thickBot="1">
+      <c r="A44" s="195"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
       <c r="D44" s="2">
         <v>0.3</v>
       </c>
@@ -4461,16 +4462,16 @@
       <c r="G44" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="172"/>
+      <c r="H44" s="179"/>
       <c r="I44" s="35"/>
       <c r="J44" s="83"/>
       <c r="K44" s="83"/>
       <c r="L44" s="83"/>
     </row>
-    <row r="45" spans="1:16358" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="177"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+    <row r="45" spans="1:16358" ht="17" thickBot="1">
+      <c r="A45" s="180"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
       <c r="D45" s="12">
         <v>0.5</v>
       </c>
@@ -4489,14 +4490,14 @@
       <c r="K45" s="83"/>
       <c r="L45" s="83"/>
     </row>
-    <row r="46" spans="1:16358" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16358" ht="43" thickBot="1">
       <c r="A46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="175" t="s">
+      <c r="B46" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="176"/>
+      <c r="C46" s="193"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="10"/>
@@ -20855,148 +20856,173 @@
       <c r="XEC46" s="11"/>
       <c r="XED46" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="173" t="s">
+    <row r="50" spans="1:9" ht="19">
+      <c r="A50" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="183" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="184"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="184"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9">
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9">
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9">
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9">
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9">
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9">
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9">
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9">
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9">
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9">
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:9">
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:9">
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:9">
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:9">
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:9">
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:9">
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9">
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9">
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9">
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:9">
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9">
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:9">
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:9">
       <c r="I87" s="16"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:9">
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:9">
       <c r="I89" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A9:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="A51:I51"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A32:B36"/>
@@ -21013,31 +21039,6 @@
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="B21:C24"/>
     <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:C45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A9:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="A37:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21045,34 +21046,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="81" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="81" customWidth="1"/>
     <col min="3" max="3" width="28" style="65" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="30" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="30" customWidth="1"/>
-    <col min="12" max="15" width="11.7109375" style="81" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="81" customWidth="1"/>
-    <col min="17" max="17" width="73.28515625" style="81" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="81"/>
+    <col min="4" max="5" width="9.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="81" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="30" customWidth="1"/>
+    <col min="10" max="11" width="13.1640625" style="30" customWidth="1"/>
+    <col min="12" max="15" width="11.6640625" style="81" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="81" customWidth="1"/>
+    <col min="17" max="17" width="73.33203125" style="81" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="33" thickBot="1">
       <c r="A1" s="81" t="s">
         <v>105</v>
       </c>
@@ -21116,11 +21117,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:17" ht="17" thickBot="1">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="163" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -21163,9 +21164,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="156"/>
+    <row r="3" spans="1:17" ht="49" thickBot="1">
+      <c r="A3" s="166"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="106"/>
       <c r="D3" s="7">
         <v>0.2</v>
@@ -21205,9 +21206,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="203" t="s">
+    <row r="4" spans="1:17" ht="32">
+      <c r="A4" s="166"/>
+      <c r="B4" s="209" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -21251,9 +21252,9 @@
       </c>
       <c r="Q4" s="129"/>
     </row>
-    <row r="5" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="204"/>
+    <row r="5" spans="1:17" ht="33" thickBot="1">
+      <c r="A5" s="166"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="114" t="s">
         <v>8</v>
       </c>
@@ -21294,12 +21295,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="203" t="s">
+    <row r="6" spans="1:17" ht="32">
+      <c r="A6" s="166"/>
+      <c r="B6" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="203"/>
+      <c r="C6" s="209"/>
       <c r="D6" s="110">
         <v>0.2</v>
       </c>
@@ -21340,12 +21341,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="129" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159"/>
-      <c r="B7" s="185" t="s">
+    <row r="7" spans="1:17" s="129" customFormat="1" ht="17" thickBot="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="119"/>
       <c r="E7" s="120"/>
       <c r="F7" s="130"/>
@@ -21362,14 +21363,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+    <row r="8" spans="1:17" ht="32">
+      <c r="A8" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="203"/>
+      <c r="C8" s="209"/>
       <c r="D8" s="110">
         <v>6.25E-2</v>
       </c>
@@ -21407,10 +21408,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+    <row r="9" spans="1:17" ht="33" thickBot="1">
+      <c r="A9" s="195"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
       <c r="D9" s="115">
         <v>6.25E-2</v>
       </c>
@@ -21448,12 +21449,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="208" t="s">
+    <row r="10" spans="1:17" s="129" customFormat="1" ht="16">
+      <c r="A10" s="195"/>
+      <c r="B10" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="209"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="110"/>
       <c r="E10" s="111"/>
       <c r="F10" s="132"/>
@@ -21470,12 +21471,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="129" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="210" t="s">
+    <row r="11" spans="1:17" s="129" customFormat="1" ht="17" thickBot="1">
+      <c r="A11" s="195"/>
+      <c r="B11" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="211"/>
+      <c r="C11" s="208"/>
       <c r="D11" s="119"/>
       <c r="E11" s="120"/>
       <c r="F11" s="130"/>
@@ -21492,12 +21493,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="203" t="s">
+    <row r="12" spans="1:17" ht="32">
+      <c r="A12" s="195"/>
+      <c r="B12" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="203"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="110">
         <v>6.25E-2</v>
       </c>
@@ -21538,10 +21539,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
+    <row r="13" spans="1:17" ht="33" thickBot="1">
+      <c r="A13" s="195"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
       <c r="D13" s="115">
         <v>6.25E-2</v>
       </c>
@@ -21583,12 +21584,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="203" t="s">
+    <row r="14" spans="1:17" ht="32">
+      <c r="A14" s="195"/>
+      <c r="B14" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="203"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="110">
         <v>6.25E-2</v>
       </c>
@@ -21629,10 +21630,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
+    <row r="15" spans="1:17" ht="33" thickBot="1">
+      <c r="A15" s="195"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
       <c r="D15" s="115">
         <v>6.25E-2</v>
       </c>
@@ -21671,12 +21672,12 @@
       </c>
       <c r="P15" s="129"/>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="203" t="s">
+    <row r="16" spans="1:17" ht="32">
+      <c r="A16" s="195"/>
+      <c r="B16" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="203"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="110">
         <v>6.25E-2</v>
       </c>
@@ -21717,10 +21718,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
+    <row r="17" spans="1:17" ht="33" thickBot="1">
+      <c r="A17" s="195"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
       <c r="D17" s="115">
         <v>6.25E-2</v>
       </c>
@@ -21759,12 +21760,12 @@
       </c>
       <c r="P17" s="129"/>
     </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="154" t="s">
+    <row r="18" spans="1:17" ht="32">
+      <c r="A18" s="195"/>
+      <c r="B18" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="154"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="7">
         <v>6.25E-2</v>
       </c>
@@ -21805,10 +21806,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
+    <row r="19" spans="1:17" ht="33" thickBot="1">
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="8">
         <v>6.25E-2</v>
       </c>
@@ -21847,12 +21848,12 @@
       </c>
       <c r="P19" s="129"/>
     </row>
-    <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="205" t="s">
+    <row r="20" spans="1:17" ht="48">
+      <c r="A20" s="195"/>
+      <c r="B20" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="205"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="7">
         <v>6.25E-2</v>
       </c>
@@ -21891,10 +21892,10 @@
       </c>
       <c r="P20" s="129"/>
     </row>
-    <row r="21" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
+    <row r="21" spans="1:17" ht="49" thickBot="1">
+      <c r="A21" s="195"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
       <c r="D21" s="8">
         <v>6.25E-2</v>
       </c>
@@ -21933,12 +21934,12 @@
       </c>
       <c r="P21" s="129"/>
     </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="205" t="s">
+    <row r="22" spans="1:17" ht="32">
+      <c r="A22" s="195"/>
+      <c r="B22" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="205"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="7">
         <v>6.25E-2</v>
       </c>
@@ -21976,14 +21977,14 @@
         <v>172</v>
       </c>
       <c r="P22" s="129"/>
-      <c r="Q22" s="207" t="s">
+      <c r="Q22" s="204" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="206"/>
+    <row r="23" spans="1:17" ht="33" thickBot="1">
+      <c r="A23" s="195"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
       <c r="D23" s="8">
         <v>6.25E-2</v>
       </c>
@@ -22021,14 +22022,14 @@
         <v>172</v>
       </c>
       <c r="P23" s="129"/>
-      <c r="Q23" s="162"/>
+      <c r="Q23" s="200"/>
     </row>
-    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="162" t="s">
+    <row r="24" spans="1:17" ht="64">
+      <c r="A24" s="195"/>
+      <c r="B24" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="162"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="92">
         <v>6.25E-2</v>
       </c>
@@ -22065,14 +22066,14 @@
       <c r="O24" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="Q24" s="207" t="s">
+      <c r="Q24" s="204" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
+    <row r="25" spans="1:17" ht="49" thickBot="1">
+      <c r="A25" s="180"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
       <c r="D25" s="97">
         <v>6.25E-2</v>
       </c>
@@ -22109,16 +22110,16 @@
       <c r="O25" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="Q25" s="162"/>
+      <c r="Q25" s="200"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+    <row r="26" spans="1:17" ht="16">
+      <c r="A26" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="154"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="7">
         <v>0.33</v>
       </c>
@@ -22156,12 +22157,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="153"/>
-      <c r="B27" s="156" t="s">
+    <row r="27" spans="1:17" ht="17" thickBot="1">
+      <c r="A27" s="203"/>
+      <c r="B27" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="197"/>
       <c r="D27" s="8">
         <v>0.67</v>
       </c>
@@ -22201,6 +22202,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B20:C21"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="A2:A7"/>
@@ -22212,16 +22223,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="B24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22229,36 +22230,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="137" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="137" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="137" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="137" customWidth="1"/>
     <col min="3" max="3" width="28" style="65" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" style="137" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="137" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="30" customWidth="1"/>
-    <col min="10" max="12" width="11.7109375" style="137" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="137" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="137" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="137" customWidth="1"/>
-    <col min="16" max="16" width="44.42578125" style="137" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="137" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="137"/>
+    <col min="4" max="5" width="9.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="137" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="30" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" style="137" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="137" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="137" customWidth="1"/>
+    <col min="15" max="15" width="28.5" style="137" customWidth="1"/>
+    <col min="16" max="16" width="44.5" style="137" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="137" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="65" thickBot="1">
       <c r="A1" s="137" t="s">
         <v>105</v>
       </c>
@@ -22308,11 +22309,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:17" ht="17" thickBot="1">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="163" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -22355,9 +22356,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="156"/>
+    <row r="3" spans="1:17" ht="49" thickBot="1">
+      <c r="A3" s="166"/>
+      <c r="B3" s="197"/>
       <c r="C3" s="106"/>
       <c r="D3" s="7">
         <v>0.2</v>
@@ -22396,9 +22397,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="203" t="s">
+    <row r="4" spans="1:17" ht="16">
+      <c r="A4" s="166"/>
+      <c r="B4" s="209" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -22447,9 +22448,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="158"/>
-      <c r="B5" s="204"/>
+    <row r="5" spans="1:17" ht="17" thickBot="1">
+      <c r="A5" s="166"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="114" t="s">
         <v>8</v>
       </c>
@@ -22490,12 +22491,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158"/>
-      <c r="B6" s="203" t="s">
+    <row r="6" spans="1:17" ht="17" thickBot="1">
+      <c r="A6" s="166"/>
+      <c r="B6" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="203"/>
+      <c r="C6" s="209"/>
       <c r="D6" s="110">
         <v>0.2</v>
       </c>
@@ -22533,12 +22534,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159"/>
-      <c r="B7" s="185" t="s">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="153" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="119"/>
       <c r="E7" s="120"/>
       <c r="F7" s="132" t="s">
@@ -22553,14 +22554,14 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+    <row r="8" spans="1:17" ht="16">
+      <c r="A8" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="203"/>
+      <c r="C8" s="209"/>
       <c r="D8" s="110">
         <v>6.25E-2</v>
       </c>
@@ -22604,10 +22605,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+    <row r="9" spans="1:17" ht="33" thickBot="1">
+      <c r="A9" s="195"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
       <c r="D9" s="115">
         <v>6.25E-2</v>
       </c>
@@ -22643,12 +22644,12 @@
       </c>
       <c r="Q9" s="148"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="208" t="s">
+    <row r="10" spans="1:17" ht="16">
+      <c r="A10" s="195"/>
+      <c r="B10" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="209"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="110"/>
       <c r="E10" s="111"/>
       <c r="F10" s="132" t="s">
@@ -22663,12 +22664,12 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="210" t="s">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
+      <c r="A11" s="195"/>
+      <c r="B11" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="211"/>
+      <c r="C11" s="208"/>
       <c r="D11" s="119"/>
       <c r="E11" s="120"/>
       <c r="F11" s="139" t="s">
@@ -22683,12 +22684,12 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="203" t="s">
+    <row r="12" spans="1:17" ht="32">
+      <c r="A12" s="195"/>
+      <c r="B12" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="203"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="110">
         <v>6.25E-2</v>
       </c>
@@ -22726,10 +22727,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
+    <row r="13" spans="1:17" ht="17" thickBot="1">
+      <c r="A13" s="195"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
       <c r="D13" s="115">
         <v>6.25E-2</v>
       </c>
@@ -22773,12 +22774,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="203" t="s">
+    <row r="14" spans="1:17" ht="32">
+      <c r="A14" s="195"/>
+      <c r="B14" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="C14" s="203"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="110">
         <v>6.25E-2</v>
       </c>
@@ -22816,10 +22817,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
+    <row r="15" spans="1:17" ht="33" thickBot="1">
+      <c r="A15" s="195"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
       <c r="D15" s="115">
         <v>6.25E-2</v>
       </c>
@@ -22857,12 +22858,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="203" t="s">
+    <row r="16" spans="1:17" ht="32">
+      <c r="A16" s="195"/>
+      <c r="B16" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="203"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="110">
         <v>6.25E-2</v>
       </c>
@@ -22900,10 +22901,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
+    <row r="17" spans="1:17" ht="49" thickBot="1">
+      <c r="A17" s="195"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
       <c r="D17" s="115">
         <v>6.25E-2</v>
       </c>
@@ -22941,12 +22942,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="154" t="s">
+    <row r="18" spans="1:17" ht="16">
+      <c r="A18" s="195"/>
+      <c r="B18" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="154"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="7">
         <v>6.25E-2</v>
       </c>
@@ -22984,10 +22985,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
+    <row r="19" spans="1:17" ht="17" thickBot="1">
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="8">
         <v>6.25E-2</v>
       </c>
@@ -23025,12 +23026,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="205" t="s">
+    <row r="20" spans="1:17" ht="16">
+      <c r="A20" s="195"/>
+      <c r="B20" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="205"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="7">
         <v>6.25E-2</v>
       </c>
@@ -23068,10 +23069,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
+    <row r="21" spans="1:17" ht="33" thickBot="1">
+      <c r="A21" s="195"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
       <c r="D21" s="8">
         <v>6.25E-2</v>
       </c>
@@ -23109,12 +23110,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="205" t="s">
+    <row r="22" spans="1:17" ht="16">
+      <c r="A22" s="195"/>
+      <c r="B22" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="205"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="7">
         <v>6.25E-2</v>
       </c>
@@ -23158,10 +23159,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="206"/>
+    <row r="23" spans="1:17" ht="17" thickBot="1">
+      <c r="A23" s="195"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
       <c r="D23" s="8">
         <v>6.25E-2</v>
       </c>
@@ -23205,12 +23206,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="162" t="s">
+    <row r="24" spans="1:17" ht="64">
+      <c r="A24" s="195"/>
+      <c r="B24" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="162"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="92">
         <v>6.25E-2</v>
       </c>
@@ -23254,10 +23255,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
+    <row r="25" spans="1:17" ht="49" thickBot="1">
+      <c r="A25" s="180"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
       <c r="D25" s="136">
         <v>6.25E-2</v>
       </c>
@@ -23301,14 +23302,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+    <row r="26" spans="1:17" ht="16">
+      <c r="A26" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="154"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="7">
         <v>0.5</v>
       </c>
@@ -23346,12 +23347,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="153"/>
-      <c r="B27" s="156" t="s">
+    <row r="27" spans="1:17" ht="17" thickBot="1">
+      <c r="A27" s="203"/>
+      <c r="B27" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="197"/>
       <c r="D27" s="8">
         <v>0.5</v>
       </c>
@@ -23370,7 +23371,7 @@
       <c r="I27" s="40">
         <v>208</v>
       </c>
-      <c r="J27" s="212" t="s">
+      <c r="J27" s="150" t="s">
         <v>335</v>
       </c>
       <c r="K27" s="140" t="s">
@@ -23391,11 +23392,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:C26"/>
@@ -23410,6 +23406,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -23632,18 +23633,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23666,6 +23667,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB783B66-E50C-4591-B803-9023FED11E06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3A4E65D-0A67-4B5A-9287-C2816BC056F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -23680,12 +23689,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB783B66-E50C-4591-B803-9023FED11E06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>